--- a/data/stations.xlsx
+++ b/data/stations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Israel_flood_prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Israel_flood_prediction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A607DF-1E5B-4195-9F0A-90CB1834D24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164AE778-1011-40F9-BCBA-D2C454397F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{988C811B-6335-417E-88A8-4BF58F9A3E55}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
-  <si>
-    <t>station_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>station_name</t>
   </si>
@@ -57,9 +54,6 @@
     <t>שורק - תחנת נחל גמליאל כביש 42</t>
   </si>
   <si>
-    <t>18180*</t>
-  </si>
-  <si>
     <t>לכיש - תחנת פארק עד הלום</t>
   </si>
   <si>
@@ -97,6 +91,9 @@
   </si>
   <si>
     <t>HIS</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -475,7 +472,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,19 +484,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -507,13 +504,13 @@
         <v>14120</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -524,13 +521,13 @@
         <v>15120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -541,13 +538,13 @@
         <v>17135</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -558,33 +555,33 @@
         <v>17168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
+      <c r="A6" s="1">
+        <v>18180</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -592,13 +589,13 @@
         <v>19185</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>15</v>
@@ -609,19 +606,19 @@
         <v>30175</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3">
         <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/stations.xlsx
+++ b/data/stations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Israel_flood_prediction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164AE778-1011-40F9-BCBA-D2C454397F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE920310-4E0F-4122-BD3B-F2653137F673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{988C811B-6335-417E-88A8-4BF58F9A3E55}"/>
+    <workbookView xWindow="3630" yWindow="1310" windowWidth="14400" windowHeight="7360" xr2:uid="{988C811B-6335-417E-88A8-4BF58F9A3E55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>station_name</t>
   </si>
@@ -51,9 +51,6 @@
     <t>אילון - תחנת שכונת עזרא</t>
   </si>
   <si>
-    <t>שורק - תחנת נחל גמליאל כביש 42</t>
-  </si>
-  <si>
     <t>לכיש - תחנת פארק עד הלום</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>timebase</t>
   </si>
   <si>
-    <t>15 (יבנה)</t>
-  </si>
-  <si>
     <t>area</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
   </si>
   <si>
     <t>גולן-כנרת</t>
-  </si>
-  <si>
-    <t>HIS</t>
   </si>
   <si>
     <t>ID</t>
@@ -469,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A88E87F-969D-4D4E-8C7D-ED0627B027BB}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,24 +473,24 @@
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>14120</v>
       </c>
@@ -507,16 +498,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>15120</v>
       </c>
@@ -524,16 +515,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>17135</v>
       </c>
@@ -541,16 +532,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>17168</v>
       </c>
@@ -558,67 +549,47 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>18180</v>
+        <v>19185</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>19185</v>
+        <v>30175</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>30175</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="E7" s="3">
         <v>60</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
